--- a/ws/the_project/nebegheha/nabegheha.xlsx
+++ b/ws/the_project/nebegheha/nabegheha.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t xml:space="preserve">Course Url</t>
   </si>
@@ -52,12 +52,12 @@
     <t xml:space="preserve">Last update</t>
   </si>
   <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
     <t xml:space="preserve">Subtitle</t>
   </si>
   <si>
-    <t xml:space="preserve">Language</t>
-  </si>
-  <si>
     <t xml:space="preserve">Size</t>
   </si>
   <si>
@@ -100,13 +100,16 @@
     <t xml:space="preserve">بهمن 1400</t>
   </si>
   <si>
+    <t xml:space="preserve">فارسی</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.5 گیگ</t>
   </si>
   <si>
     <t xml:space="preserve">https://nabegheha.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">programming</t>
+    <t xml:space="preserve">برنامه نویسی</t>
   </si>
   <si>
     <t xml:space="preserve">266</t>
@@ -122,7 +125,7 @@
     <t xml:space="preserve">آموزش فریمورک فلاتر</t>
   </si>
   <si>
-    <t xml:space="preserve">26 ساعت</t>
+    <t xml:space="preserve">36 ساعت</t>
   </si>
   <si>
     <t xml:space="preserve">2500000</t>
@@ -140,13 +143,14 @@
     <t xml:space="preserve">در حال برگزاری</t>
   </si>
   <si>
-    <t xml:space="preserve">3.5 گیگ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270</t>
-  </si>
-  <si>
-    <t xml:space="preserve">صحبت درباره‌ی پکیج آموزش فلاتر :</t>
+    <t xml:space="preserve">4.5 گیگ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">این را همه می‌دانیم که یکی از اساسی‌ترین چالش‌های موجود برای ساخت اپلیکیشن‌های موبایلی وجود دو پلتفرم متفاوت اندروید و iOS است که معماری هرکدام بسیار متفاوت می‌باشد. شما برای اینکه بتوانید یک اپلیکیشن داشته باشید که بر روی هر دو پلتفرم اجرا شود، باید سراغ یادگیری هر کدام از این دو مورد بصورت جداگانه بروید.
+اما الان در حال حاضر به لطف فریمورک قدرتمند و عالی فلاتر این چالش از سر راه برنامه‌نویسان برداشته شده و حالا می‌توانید تنها با یکبار کدنویسی، برای هر دو پلتفرم اپلیکیشن درست کنید. فریمورک فلاتر یا Flutter توسط شرکت گوگل توسعه داده شده و تا به اینجای کار بسیار عالی عمل کرده. در این پکیج آموزشی می‌خواهیم از 0 تا 100 آموزش فلاتر به شما بدیم و در نهایت با پروژه‌های بسیار زیاد و جذاب، شما را وارد بازار کار کنیم. اما بهتره اول یکم بیشتر در مورد آموزش فلاتر صحبت کنم.</t>
   </si>
   <si>
     <t xml:space="preserve">https://nabegheha.com/product/python</t>
@@ -173,7 +177,8 @@
     <t xml:space="preserve">156</t>
   </si>
   <si>
-    <t xml:space="preserve">صحبت درباره‌ی پکیج آموزش پایتون :</t>
+    <t xml:space="preserve">دوره‌ی آموزش پایتون برای دانشجویان مبتدی در برنامه نویسی بهترین گزینه می باشد چرا که در سالهای اخیر این زبان به یکی از پر طرفدار ترین زبان های برنامه نویسی تبدیل شده است. الان جوری شده که اگر پایتون رو بلد نباشید، زندگی عادی شما هم سخت میشه.
+الان هستن کسایی که توی بورس، فارکس، ارز دیجیتال و خیلی جاهای دیگه از آموزش پایتون استفاده میکنن. اگر تو این حوزه‌ها هم فعالیت نداشته باشید، به احتمال خیلی زیاد توی اینستاگرام فعالیت دارید. وقتی میشه یه عالمه کار تکراری و حوصله سر بر رو داد به ربات انجام بده، چرا ما خودمون انجام بدیم؟ ویدیو زیر رو مشاهده کنید، با آموزش پایتون ربات اینستاگرامی نوشتم و کاری رو میدم این ربات انجام بده که اگر خودم میخواستم انجام بدم، شاید 1 ماه زمان میبرد:</t>
   </si>
   <si>
     <t xml:space="preserve">https://nabegheha.com/product/ruby</t>
@@ -188,7 +193,7 @@
     <t xml:space="preserve">699000</t>
   </si>
   <si>
-    <t xml:space="preserve">https://nabegheha.com/wp-content/uploads/2017/07/cover-Ruby-344x408-1-344x408.png</t>
+    <t xml:space="preserve">https://nabegheha.com/wp-content/uploads/2017/07/cover-Ruby-344x408-1-344x408.png.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://nabegheha.com/wp-content/uploads/2017/07/175.Ruby-Intro-c.mp4</t>
@@ -197,7 +202,9 @@
     <t xml:space="preserve">158</t>
   </si>
   <si>
-    <t xml:space="preserve">معرفی پکیج آموزش کامل روبی :</t>
+    <t xml:space="preserve">یکم بیشتر با پکیج آموزش کامل روبی آشنا بشیم. روبی (به انگلیسی: Ruby) یک زبان برنامه‌نویسی انعطاف‌پذیر، پویا و شیءگرا است. سازنده‌ی این زبان، در نوشته‌های خود گفته است، وقتی زبان روبی را میساختم، به دنبال یک ساختار ایده آل و عالی بودم، زبان اسکریپتی میخواستم که از پرل خیلی قوی تر و در شیءگرایی هم از زبان پایتون کاملتر باشد.
+در نهایت در سال 1995، آقای Yukihiro “Matz” Matsumoto، روبی را به جامعه‌ی برنامه نویسان معرفی کرد. شما در پکیج آموزش کامل روبی، از مقدمات تا پیشرفته روبی را آموزش میبینید.
+روبی کاربردهای فراوانی دارد؛ به عنوان مثال در وب و طراحی سایت ، شبیه سازی ها، مدل سازی‌ها، برنامه نویسی سمت سرور، ساخت بازی، روباتیک، شبکه، مباحث مربوط به تست نفوذ مثل نوشتن ماژول‌های مختلف برای متاسپلویت و هک و امنیت استفاده میشود. روبی بر روی انواع سیستم عامل های مختلف مثل ویندوز، لینوکس، مک و … قابل اجرا است به زبان دیگر، مستقل از سیستم عامل است. اگر به دنیای سایت سازی ، هک و امنیت و اسکریپت نویسی علاقه دارید و به دنبال بهترین و به روزترین پکیج آموزش کامل روبی در ایران هستید، این پکیج آموزشی بهترین و تنها انتخاب شما است.</t>
   </si>
   <si>
     <t xml:space="preserve">https://nabegheha.com/product/super-linux</t>
@@ -209,7 +216,7 @@
     <t xml:space="preserve">24 ساعت</t>
   </si>
   <si>
-    <t xml:space="preserve">https://nabegheha.com/wp-content/uploads/2017/07/cover-super-linux-344x408-1-344x408.png</t>
+    <t xml:space="preserve">https://nabegheha.com/wp-content/uploads/2017/07/cover-super-linux-344x408-1-344x408.png.webp</t>
   </si>
   <si>
     <t xml:space="preserve">https://nabegheha.com/wp-content/uploads/2017/07/176.Linux-Intro-c.mp4</t>
@@ -221,7 +228,9 @@
     <t xml:space="preserve">55</t>
   </si>
   <si>
-    <t xml:space="preserve">معرفی پکیج آموزش لینوکس :</t>
+    <t xml:space="preserve">پکیجی که در حال مشاهده ی آن هستید، آموزش لینوکس به سبکی متفاوت می‌باشد. این پکیج تلفیقی از ۲ دوره بسیار ارزشمند Lpic1 و Lpic2 میباشد. بنابراین تصمیم گرفتیم، این پکیج آموزش لینوکس را، سوپر لینوکس نام گذاری کنیم.
+مختصر و مفید بخواهیم سیستم عامل را تعریف کنیم میتوان گفت : هر کامپیوتری برای برقراری ارتباط بین کاربر و قطعات سخت افزاری نیاز به سیستم عامل دارد. یکی از این سیستم عامل‌ها لینوکس Linux می‌باشد. امروزه اکثر سرورهای دنیا که سایت‌های مختلف را میزبانی می‌کنند از پلتفرم لینوکس استفاده می‌کنند که یکی از دلایل آن، پایداری بسیار بالای سرورهای لینوکسی و امنیت میباشد.
+اما چرا باید آموزش لینوکس ببینیم؟ سیستم عامل گنو/لینوکس یکی از قابل اعتمادترین پلتفرم‌ها در دنیا است و در عین حال هم هیچ هزینه ایی برای شما نداشته و کاملا رایگان است. یکی دیگر از دلایل یادگیری، افزایش اعتبار رزومه کاری شما میباشد. توسط پکیج آموزش لینوکس نابغه ها، لینوکس و دستورات لینوکسی را به بهترین شکل آموزش ببینید. در ویدیو زیر تصاویری از محیط سیستم عامل لینوکس را مشاهده میکنید :</t>
   </si>
 </sst>
 </file>
@@ -231,7 +240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -263,12 +272,25 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -319,29 +341,41 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="2"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -364,34 +398,34 @@
   </sheetPr>
   <dimension ref="A1:S6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T2" activeCellId="0" sqref="T:T"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L10" activeCellId="0" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="26.85" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="25.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.92"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="89.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="88.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="24.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="16.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="16.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="87.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="21.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="85.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="69.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="21.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="207.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="20" style="1" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -422,10 +456,10 @@
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -447,11 +481,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -466,208 +500,224 @@
       <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="6"/>
       <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="O2" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="P2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="S2" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>31</v>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>37</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="S3" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>42</v>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="J4" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="K4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="S4" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="S4" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>51</v>
+      <c r="B5" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="J5" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="K5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S5" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="S5" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="6" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>59</v>
+      <c r="B6" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>63</v>
       </c>
+      <c r="J6" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>27</v>
+        <v>65</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S6" s="1" t="s">
         <v>66</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -685,11 +735,11 @@
     <hyperlink ref="J4" r:id="rId11" display="https://nabegheha.com/wp-content/uploads/2017/07/177.Python-Intro-c.mp4"/>
     <hyperlink ref="O4" r:id="rId12" display="https://nabegheha.com/"/>
     <hyperlink ref="B5" r:id="rId13" display="https://nabegheha.com/product/ruby"/>
-    <hyperlink ref="I5" r:id="rId14" display="https://nabegheha.com/wp-content/uploads/2017/07/cover-Ruby-344x408-1-344x408.png"/>
+    <hyperlink ref="I5" r:id="rId14" display="https://nabegheha.com/wp-content/uploads/2017/07/cover-Ruby-344x408-1-344x408.png.webp"/>
     <hyperlink ref="J5" r:id="rId15" display="https://nabegheha.com/wp-content/uploads/2017/07/175.Ruby-Intro-c.mp4"/>
     <hyperlink ref="O5" r:id="rId16" display="https://nabegheha.com/"/>
     <hyperlink ref="B6" r:id="rId17" display="https://nabegheha.com/product/super-linux"/>
-    <hyperlink ref="I6" r:id="rId18" display="https://nabegheha.com/wp-content/uploads/2017/07/cover-super-linux-344x408-1-344x408.png"/>
+    <hyperlink ref="I6" r:id="rId18" display="https://nabegheha.com/wp-content/uploads/2017/07/cover-super-linux-344x408-1-344x408.png.webp"/>
     <hyperlink ref="J6" r:id="rId19" display="https://nabegheha.com/wp-content/uploads/2017/07/176.Linux-Intro-c.mp4"/>
     <hyperlink ref="O6" r:id="rId20" display="https://nabegheha.com/"/>
   </hyperlinks>
